--- a/xlsx/sc_FishSkillData.xlsx
+++ b/xlsx/sc_FishSkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05D4FD-E0F5-4D11-9635-2868AF232DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBD68E0-9CAF-42D3-A001-D66105564382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="1575" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32220" yWindow="1515" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -42,25 +42,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HealLife</t>
-  </si>
-  <si>
-    <t>Suck</t>
-  </si>
-  <si>
-    <t>0.5,0.1</t>
+    <t>肿胀（河豚鱼）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9,1</t>
+    <t>FishSkillHealLife</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【恢复血量百分比】【吃一条鱼加能量值的比例】</t>
+    <t>FishSkillSwelling</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【吞吸距离的平方】【*吃一条鱼加能量值的比例】</t>
+    <t>【吃一条鱼加能量值的比例】【恢复血量百分比】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【吃一条鱼加能量值的比例】【吞吸距离的平方】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【吃一条鱼加能量值的比例】【时间】【伤害攻击力百分比】【反弹力度】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishSkillSuck</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -131,6 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1294,16 +1313,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
@@ -1332,16 +1351,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1352,25 +1371,37 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>-1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>

--- a/xlsx/sc_FishSkillData.xlsx
+++ b/xlsx/sc_FishSkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBD68E0-9CAF-42D3-A001-D66105564382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDB01AC-F214-43E4-9C44-6F1FCC8E4B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="1515" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2220" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,15 +70,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【吃一条鱼加能量值的比例】【时间】【伤害攻击力百分比】【反弹力度】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FishSkillSuck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,2,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>-1</v>
@@ -1397,10 +1397,10 @@
         <v>-1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/xlsx/sc_FishSkillData.xlsx
+++ b/xlsx/sc_FishSkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDB01AC-F214-43E4-9C44-6F1FCC8E4B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9476BC-9A2F-4AC0-9544-F499035EE9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2220" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/xlsx/sc_FishSkillData.xlsx
+++ b/xlsx/sc_FishSkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9476BC-9A2F-4AC0-9544-F499035EE9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B92BF1-F858-459B-B986-615A7CB38649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="1980" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>0.2,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -103,6 +107,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -141,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -150,6 +161,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1310,130 +1324,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="69.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8">
+        <v>10012</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>-1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8">
+        <v>10032</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>-1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xlsx/sc_FishSkillData.xlsx
+++ b/xlsx/sc_FishSkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B92BF1-F858-459B-B986-615A7CB38649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F70962-192A-4544-9A60-4A1DE2C98024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="1980" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1620" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,18 +54,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【吃一条鱼加能量值的比例】【恢复血量百分比】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【吃一条鱼加能量值的比例】【吞吸距离的平方】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.1,0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,6 +75,14 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【吃一条鱼加能量值的比例】【BuffID】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,16 +1393,16 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>-1</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1422,10 +1422,10 @@
         <v>-1</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/xlsx/sc_FishSkillData.xlsx
+++ b/xlsx/sc_FishSkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F70962-192A-4544-9A60-4A1DE2C98024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F88B9-CDB6-4663-B1A1-5DBE7C83C241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1620" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【吃一条鱼加能量值的比例】【时间】【伤害攻击力百分比】【反弹力度】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FishSkillSuck</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.2,2,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,6 +75,14 @@
   </si>
   <si>
     <t>0.1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【吃一条鱼加能量值的比例】【时间】【伤害攻击力百分比】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,2,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>-1</v>
@@ -1422,10 +1422,10 @@
         <v>-1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
